--- a/Input data/Test_Task_list.xlsx
+++ b/Input data/Test_Task_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06A95C9-8D75-394A-8684-7767666236A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC3F86-9937-D34F-9A97-1E2DB5E80F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
   <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J13"/>
+    <sheetView topLeftCell="D1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -788,7 +788,7 @@
         <v>400</v>
       </c>
       <c r="G7" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>7</v>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J8" s="12">
         <v>0.5</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>8</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -2859,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3151,7 +3151,7 @@
         <v>400</v>
       </c>
       <c r="G8" s="8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>7</v>
@@ -3195,7 +3195,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J9" s="12">
         <v>0.5</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>50</v>
       </c>
       <c r="G17" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>8</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <v>1</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>

--- a/Input data/Test_Task_list.xlsx
+++ b/Input data/Test_Task_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC3F86-9937-D34F-9A97-1E2DB5E80F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCC721-CFD4-5A43-8D5A-297D6244D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
+    <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="14">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -523,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
-  <dimension ref="A1:M141"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="J110" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1263,1330 +1263,3880 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="4"/>
-      <c r="L20" s="11"/>
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>225</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>80</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="4"/>
-      <c r="L21" s="11"/>
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>225</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>235</v>
+      </c>
+      <c r="G21" s="8">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="4"/>
-      <c r="L22" s="11"/>
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>225</v>
+      </c>
+      <c r="D22" s="8">
+        <v>7</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>235</v>
+      </c>
+      <c r="G22" s="8">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="4">
+        <v>29</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="4"/>
-      <c r="L23" s="11"/>
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>225</v>
+      </c>
+      <c r="D23" s="8">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>400</v>
+      </c>
+      <c r="G23" s="8">
+        <v>11</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="4"/>
-      <c r="L24" s="11"/>
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>225</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>400</v>
+      </c>
+      <c r="G24" s="8">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="4"/>
-      <c r="L25" s="11"/>
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>225</v>
+      </c>
+      <c r="D25" s="8">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>400</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="4"/>
-      <c r="L26" s="11"/>
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>225</v>
+      </c>
+      <c r="D26" s="8">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>400</v>
+      </c>
+      <c r="G26" s="8">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="4"/>
-      <c r="L27" s="11"/>
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>225</v>
+      </c>
+      <c r="D27" s="8">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>400</v>
+      </c>
+      <c r="G27" s="8">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="4"/>
-      <c r="L28" s="11"/>
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>225</v>
+      </c>
+      <c r="D28" s="8">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>400</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="4">
+        <v>32</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="4"/>
-      <c r="L29" s="11"/>
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>225</v>
+      </c>
+      <c r="D29" s="8">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>400</v>
+      </c>
+      <c r="G29" s="8">
+        <v>10</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="4"/>
-      <c r="L30" s="11"/>
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>225</v>
+      </c>
+      <c r="D30" s="8">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>400</v>
+      </c>
+      <c r="G30" s="8">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="4"/>
-      <c r="L31" s="11"/>
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>10</v>
+      </c>
+      <c r="G31" s="9">
+        <v>7</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="4"/>
-      <c r="L32" s="11"/>
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10</v>
+      </c>
+      <c r="G32" s="9">
+        <v>4</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="4"/>
-      <c r="L33" s="11"/>
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>50</v>
+      </c>
+      <c r="G33" s="9">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>12</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="4"/>
-      <c r="L34" s="11"/>
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>50</v>
+      </c>
+      <c r="G34" s="9">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="4"/>
-      <c r="L35" s="11"/>
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>50</v>
+      </c>
+      <c r="G35" s="9">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>12</v>
+      </c>
+      <c r="L35">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="4"/>
-      <c r="L36" s="11"/>
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>50</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="4"/>
-      <c r="L37" s="11"/>
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>225</v>
+      </c>
+      <c r="D37" s="8">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>80</v>
+      </c>
+      <c r="G37" s="8">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="4"/>
-      <c r="L38" s="11"/>
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>225</v>
+      </c>
+      <c r="D38" s="8">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>235</v>
+      </c>
+      <c r="G38" s="8">
+        <v>9</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="4"/>
-      <c r="L39" s="11"/>
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>225</v>
+      </c>
+      <c r="D39" s="8">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>235</v>
+      </c>
+      <c r="G39" s="8">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="4">
+        <v>46</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="L40" s="11"/>
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>225</v>
+      </c>
+      <c r="D40" s="8">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>400</v>
+      </c>
+      <c r="G40" s="8">
+        <v>11</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="L41" s="11"/>
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>225</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>400</v>
+      </c>
+      <c r="G41" s="8">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="L42" s="11"/>
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>225</v>
+      </c>
+      <c r="D42" s="8">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>400</v>
+      </c>
+      <c r="G42" s="8">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="L43" s="11"/>
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>225</v>
+      </c>
+      <c r="D43" s="8">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>400</v>
+      </c>
+      <c r="G43" s="8">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="L44" s="11"/>
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>225</v>
+      </c>
+      <c r="D44" s="8">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+      <c r="F44" s="4">
+        <v>400</v>
+      </c>
+      <c r="G44" s="8">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="L45" s="11"/>
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>225</v>
+      </c>
+      <c r="D45" s="8">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>400</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="4">
+        <v>49</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="L46" s="11"/>
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>225</v>
+      </c>
+      <c r="D46" s="8">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>400</v>
+      </c>
+      <c r="G46" s="8">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="L47" s="11"/>
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>225</v>
+      </c>
+      <c r="D47" s="8">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4">
+        <v>400</v>
+      </c>
+      <c r="G47" s="8">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="L48" s="11"/>
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>10</v>
+      </c>
+      <c r="G48" s="9">
+        <v>7</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>12</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="L49" s="11"/>
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5">
+        <v>10</v>
+      </c>
+      <c r="G49" s="9">
+        <v>4</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="L50" s="11"/>
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>50</v>
+      </c>
+      <c r="G50" s="9">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="L51" s="11"/>
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>50</v>
+      </c>
+      <c r="G51" s="9">
+        <v>8</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="L52" s="11"/>
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>50</v>
+      </c>
+      <c r="G52" s="9">
+        <v>12</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>12</v>
+      </c>
+      <c r="L52">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="L53" s="11"/>
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>50</v>
+      </c>
+      <c r="G53" s="9">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
+      <c r="L53">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="L54" s="11"/>
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>225</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>80</v>
+      </c>
+      <c r="G54" s="8">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K54">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <v>9</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="L55" s="11"/>
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>225</v>
+      </c>
+      <c r="D55" s="8">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>235</v>
+      </c>
+      <c r="G55" s="8">
+        <v>9</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="L56" s="11"/>
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>225</v>
+      </c>
+      <c r="D56" s="8">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>235</v>
+      </c>
+      <c r="G56" s="8">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="4">
+        <v>63</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="L57" s="11"/>
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>225</v>
+      </c>
+      <c r="D57" s="8">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>400</v>
+      </c>
+      <c r="G57" s="8">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="L58" s="11"/>
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>225</v>
+      </c>
+      <c r="D58" s="8">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>400</v>
+      </c>
+      <c r="G58" s="8">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="L59" s="11"/>
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>225</v>
+      </c>
+      <c r="D59" s="8">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>400</v>
+      </c>
+      <c r="G59" s="8">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="L60" s="11"/>
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>225</v>
+      </c>
+      <c r="D60" s="8">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>400</v>
+      </c>
+      <c r="G60" s="8">
+        <v>8</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="L61" s="11"/>
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>225</v>
+      </c>
+      <c r="D61" s="8">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4">
+        <v>400</v>
+      </c>
+      <c r="G61" s="8">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K61">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="L62" s="11"/>
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>225</v>
+      </c>
+      <c r="D62" s="8">
+        <v>8</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>400</v>
+      </c>
+      <c r="G62" s="8">
+        <v>2</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="4">
+        <v>66</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="L63" s="11"/>
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>225</v>
+      </c>
+      <c r="D63" s="8">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4">
+        <v>400</v>
+      </c>
+      <c r="G63" s="8">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>9</v>
+      </c>
+      <c r="L63">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="4"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="L64" s="11"/>
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>225</v>
+      </c>
+      <c r="D64" s="8">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4">
+        <v>400</v>
+      </c>
+      <c r="G64" s="8">
+        <v>7</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K64">
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="4"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="L65" s="11"/>
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5">
+        <v>0</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>10</v>
+      </c>
+      <c r="G65" s="9">
+        <v>7</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>12</v>
+      </c>
+      <c r="L65">
+        <v>12</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="4"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="L66" s="11"/>
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5">
+        <v>10</v>
+      </c>
+      <c r="G66" s="9">
+        <v>4</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="4"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="L67" s="11"/>
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>50</v>
+      </c>
+      <c r="G67" s="9">
+        <v>14</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="4"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="L68" s="11"/>
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>50</v>
+      </c>
+      <c r="G68" s="9">
+        <v>8</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="4"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="L69" s="11"/>
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>50</v>
+      </c>
+      <c r="G69" s="9">
+        <v>12</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>12</v>
+      </c>
+      <c r="L69">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="4"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="L70" s="11"/>
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>50</v>
+      </c>
+      <c r="G70" s="9">
+        <v>5</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="4"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="L71" s="11"/>
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>225</v>
+      </c>
+      <c r="D71" s="8">
+        <v>3</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>80</v>
+      </c>
+      <c r="G71" s="8">
+        <v>6</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K71">
+        <v>9</v>
+      </c>
+      <c r="L71">
+        <v>9</v>
+      </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="4"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="L72" s="11"/>
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>225</v>
+      </c>
+      <c r="D72" s="8">
+        <v>3</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>235</v>
+      </c>
+      <c r="G72" s="8">
+        <v>9</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <v>9</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="4"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="L73" s="11"/>
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>225</v>
+      </c>
+      <c r="D73" s="8">
+        <v>7</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>235</v>
+      </c>
+      <c r="G73" s="8">
+        <v>5</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="4">
+        <v>80</v>
+      </c>
+      <c r="J73" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K73">
+        <v>9</v>
+      </c>
+      <c r="L73">
+        <v>9</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="4"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="L74" s="11"/>
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
+        <v>225</v>
+      </c>
+      <c r="D74" s="8">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>400</v>
+      </c>
+      <c r="G74" s="8">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K74">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="4"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="L75" s="11"/>
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
+        <v>225</v>
+      </c>
+      <c r="D75" s="8">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>400</v>
+      </c>
+      <c r="G75" s="8">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>9</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="4"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="L76" s="11"/>
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>225</v>
+      </c>
+      <c r="D76" s="8">
+        <v>12</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>400</v>
+      </c>
+      <c r="G76" s="8">
+        <v>4</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="4"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="L77" s="11"/>
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>400</v>
+      </c>
+      <c r="G77" s="8">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="4"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="L78" s="11"/>
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4">
+        <v>2</v>
+      </c>
+      <c r="F78" s="4">
+        <v>400</v>
+      </c>
+      <c r="G78" s="8">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K78">
+        <v>9</v>
+      </c>
+      <c r="L78">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="4"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="L79" s="11"/>
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8">
+        <v>8</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
+        <v>400</v>
+      </c>
+      <c r="G79" s="8">
+        <v>2</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="4">
+        <v>83</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K79">
+        <v>9</v>
+      </c>
+      <c r="L79">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="4"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="L80" s="11"/>
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>225</v>
+      </c>
+      <c r="D80" s="8">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2</v>
+      </c>
+      <c r="F80" s="4">
+        <v>400</v>
+      </c>
+      <c r="G80" s="8">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="4">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <v>9</v>
+      </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="L81" s="11"/>
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>225</v>
+      </c>
+      <c r="D81" s="8">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>400</v>
+      </c>
+      <c r="G81" s="8">
+        <v>7</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>9</v>
+      </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="L82" s="11"/>
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1</v>
+      </c>
+      <c r="F82" s="5">
+        <v>10</v>
+      </c>
+      <c r="G82" s="9">
+        <v>7</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>12</v>
+      </c>
+      <c r="L82">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="L83" s="11"/>
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="5">
+        <v>10</v>
+      </c>
+      <c r="G83" s="9">
+        <v>4</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>12</v>
+      </c>
+      <c r="L83">
+        <v>12</v>
+      </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="L84" s="11"/>
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1</v>
+      </c>
+      <c r="F84" s="5">
+        <v>50</v>
+      </c>
+      <c r="G84" s="9">
+        <v>14</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" s="12">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="L85" s="11"/>
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>50</v>
+      </c>
+      <c r="G85" s="9">
+        <v>8</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>12</v>
+      </c>
+      <c r="L85">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="L86" s="11"/>
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
+        <v>50</v>
+      </c>
+      <c r="G86" s="9">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="12">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>12</v>
+      </c>
+      <c r="L86">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="L87" s="11"/>
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>50</v>
+      </c>
+      <c r="G87" s="9">
+        <v>5</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>12</v>
+      </c>
+      <c r="L87">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="L88" s="11"/>
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0</v>
+      </c>
+      <c r="C88" s="4">
+        <v>225</v>
+      </c>
+      <c r="D88" s="8">
+        <v>3</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>80</v>
+      </c>
+      <c r="G88" s="8">
+        <v>6</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K88">
+        <v>9</v>
+      </c>
+      <c r="L88">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="L89" s="11"/>
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>225</v>
+      </c>
+      <c r="D89" s="8">
+        <v>3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>235</v>
+      </c>
+      <c r="G89" s="8">
+        <v>9</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K89">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="L90" s="11"/>
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4">
+        <v>225</v>
+      </c>
+      <c r="D90" s="8">
+        <v>7</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>235</v>
+      </c>
+      <c r="G90" s="8">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="4">
+        <v>97</v>
+      </c>
+      <c r="J90" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K90">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>9</v>
+      </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="L91" s="11"/>
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4">
+        <v>225</v>
+      </c>
+      <c r="D91" s="8">
+        <v>3</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="F91" s="4">
+        <v>400</v>
+      </c>
+      <c r="G91" s="8">
+        <v>11</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="4">
+        <v>0</v>
+      </c>
+      <c r="J91" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K91">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="L92" s="11"/>
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>225</v>
+      </c>
+      <c r="D92" s="8">
+        <v>3</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>400</v>
+      </c>
+      <c r="G92" s="8">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K92">
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="4"/>
-      <c r="L93" s="11"/>
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>225</v>
+      </c>
+      <c r="D93" s="8">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>400</v>
+      </c>
+      <c r="G93" s="8">
+        <v>4</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K93">
+        <v>9</v>
+      </c>
+      <c r="L93">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="4"/>
-      <c r="L94" s="11"/>
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>225</v>
+      </c>
+      <c r="D94" s="8">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4">
+        <v>400</v>
+      </c>
+      <c r="G94" s="8">
+        <v>8</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+      <c r="J94" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K94">
+        <v>9</v>
+      </c>
+      <c r="L94">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="4"/>
-      <c r="L95" s="11"/>
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>225</v>
+      </c>
+      <c r="D95" s="8">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4">
+        <v>2</v>
+      </c>
+      <c r="F95" s="4">
+        <v>400</v>
+      </c>
+      <c r="G95" s="8">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K95">
+        <v>9</v>
+      </c>
+      <c r="L95">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="4"/>
-      <c r="L96" s="11"/>
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>225</v>
+      </c>
+      <c r="D96" s="8">
+        <v>8</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2</v>
+      </c>
+      <c r="F96" s="4">
+        <v>400</v>
+      </c>
+      <c r="G96" s="8">
+        <v>2</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="4">
+        <v>100</v>
+      </c>
+      <c r="J96" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K96">
+        <v>9</v>
+      </c>
+      <c r="L96">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="4"/>
-      <c r="L97" s="11"/>
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="4">
+        <v>225</v>
+      </c>
+      <c r="D97" s="8">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+      <c r="F97" s="4">
+        <v>400</v>
+      </c>
+      <c r="G97" s="8">
+        <v>10</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="4">
+        <v>0</v>
+      </c>
+      <c r="J97" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <v>9</v>
+      </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="4"/>
-      <c r="L98" s="11"/>
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>225</v>
+      </c>
+      <c r="D98" s="8">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+      <c r="F98" s="4">
+        <v>400</v>
+      </c>
+      <c r="G98" s="8">
+        <v>7</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>9</v>
+      </c>
+      <c r="L98">
+        <v>9</v>
+      </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="4"/>
-      <c r="L99" s="11"/>
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5">
+        <v>0</v>
+      </c>
+      <c r="C99" s="5">
+        <v>0</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1</v>
+      </c>
+      <c r="F99" s="5">
+        <v>10</v>
+      </c>
+      <c r="G99" s="9">
+        <v>7</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="12">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>12</v>
+      </c>
+      <c r="L99">
+        <v>12</v>
+      </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="4"/>
-      <c r="L100" s="11"/>
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0</v>
+      </c>
+      <c r="F100" s="5">
+        <v>10</v>
+      </c>
+      <c r="G100" s="9">
+        <v>4</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="12">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>12</v>
+      </c>
+      <c r="L100">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="4"/>
-      <c r="L101" s="11"/>
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5">
+        <v>50</v>
+      </c>
+      <c r="G101" s="9">
+        <v>14</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>12</v>
+      </c>
+      <c r="L101">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="4"/>
-      <c r="L102" s="11"/>
+      <c r="A102" s="4">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>50</v>
+      </c>
+      <c r="G102" s="9">
+        <v>8</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="12">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>12</v>
+      </c>
+      <c r="L102">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="4"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="6"/>
-      <c r="J103" s="4"/>
-      <c r="L103" s="11"/>
+      <c r="A103" s="4">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>50</v>
+      </c>
+      <c r="G103" s="9">
+        <v>12</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+      <c r="J103" s="12">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>12</v>
+      </c>
+      <c r="L103">
+        <v>12</v>
+      </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="4"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="4"/>
-      <c r="L104" s="11"/>
+      <c r="A104" s="4">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1</v>
+      </c>
+      <c r="F104" s="5">
+        <v>50</v>
+      </c>
+      <c r="G104" s="9">
+        <v>5</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="12">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>12</v>
+      </c>
+      <c r="L104">
+        <v>12</v>
+      </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="4"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="4"/>
-      <c r="L105" s="11"/>
+      <c r="A105" s="4">
+        <v>103</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0</v>
+      </c>
+      <c r="C105" s="4">
+        <v>225</v>
+      </c>
+      <c r="D105" s="8">
+        <v>3</v>
+      </c>
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <v>80</v>
+      </c>
+      <c r="G105" s="8">
+        <v>6</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K105">
+        <v>9</v>
+      </c>
+      <c r="L105">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="4"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="4"/>
-      <c r="L106" s="11"/>
+      <c r="A106" s="4">
+        <v>104</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4">
+        <v>225</v>
+      </c>
+      <c r="D106" s="8">
+        <v>3</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>235</v>
+      </c>
+      <c r="G106" s="8">
+        <v>9</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K106">
+        <v>9</v>
+      </c>
+      <c r="L106">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="4"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="4"/>
-      <c r="L107" s="11"/>
+      <c r="A107" s="4">
+        <v>105</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="4">
+        <v>225</v>
+      </c>
+      <c r="D107" s="8">
+        <v>7</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>235</v>
+      </c>
+      <c r="G107" s="8">
+        <v>5</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="4">
+        <v>114</v>
+      </c>
+      <c r="J107" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K107">
+        <v>9</v>
+      </c>
+      <c r="L107">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="4"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="4"/>
-      <c r="L108" s="11"/>
+      <c r="A108" s="4">
+        <v>106</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4">
+        <v>225</v>
+      </c>
+      <c r="D108" s="8">
+        <v>3</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1</v>
+      </c>
+      <c r="F108" s="4">
+        <v>400</v>
+      </c>
+      <c r="G108" s="8">
+        <v>11</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="4">
+        <v>0</v>
+      </c>
+      <c r="J108" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>9</v>
+      </c>
+      <c r="L108">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="4"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="4"/>
-      <c r="L109" s="11"/>
+      <c r="A109" s="4">
+        <v>107</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="4">
+        <v>225</v>
+      </c>
+      <c r="D109" s="8">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1</v>
+      </c>
+      <c r="F109" s="4">
+        <v>400</v>
+      </c>
+      <c r="G109" s="8">
+        <v>14</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>9</v>
+      </c>
+      <c r="L109">
+        <v>9</v>
+      </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="4"/>
-      <c r="L110" s="11"/>
+      <c r="A110" s="4">
+        <v>108</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>225</v>
+      </c>
+      <c r="D110" s="8">
+        <v>12</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4">
+        <v>400</v>
+      </c>
+      <c r="G110" s="8">
+        <v>4</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K110">
+        <v>9</v>
+      </c>
+      <c r="L110">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="4"/>
-      <c r="L111" s="11"/>
+      <c r="A111" s="4">
+        <v>109</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>225</v>
+      </c>
+      <c r="D111" s="8">
+        <v>12</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
+        <v>400</v>
+      </c>
+      <c r="G111" s="8">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K111">
+        <v>9</v>
+      </c>
+      <c r="L111">
+        <v>9</v>
+      </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="4"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="4"/>
-      <c r="L112" s="11"/>
+      <c r="A112" s="4">
+        <v>110</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>225</v>
+      </c>
+      <c r="D112" s="8">
+        <v>12</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2</v>
+      </c>
+      <c r="F112" s="4">
+        <v>400</v>
+      </c>
+      <c r="G112" s="8">
+        <v>8</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K112">
+        <v>9</v>
+      </c>
+      <c r="L112">
+        <v>9</v>
+      </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="4"/>
-      <c r="L113" s="11"/>
+      <c r="A113" s="4">
+        <v>111</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>225</v>
+      </c>
+      <c r="D113" s="8">
+        <v>8</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2</v>
+      </c>
+      <c r="F113" s="4">
+        <v>400</v>
+      </c>
+      <c r="G113" s="8">
+        <v>2</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="4">
+        <v>117</v>
+      </c>
+      <c r="J113" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K113">
+        <v>9</v>
+      </c>
+      <c r="L113">
+        <v>9</v>
+      </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="4"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="4"/>
-      <c r="L114" s="11"/>
+      <c r="A114" s="4">
+        <v>112</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>225</v>
+      </c>
+      <c r="D114" s="8">
+        <v>12</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2</v>
+      </c>
+      <c r="F114" s="4">
+        <v>400</v>
+      </c>
+      <c r="G114" s="8">
+        <v>10</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K114">
+        <v>9</v>
+      </c>
+      <c r="L114">
+        <v>9</v>
+      </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="4"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="4"/>
-      <c r="L115" s="11"/>
+      <c r="A115" s="4">
+        <v>113</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>225</v>
+      </c>
+      <c r="D115" s="8">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4">
+        <v>2</v>
+      </c>
+      <c r="F115" s="4">
+        <v>400</v>
+      </c>
+      <c r="G115" s="8">
+        <v>7</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K115">
+        <v>9</v>
+      </c>
+      <c r="L115">
+        <v>9</v>
+      </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="L116" s="11"/>
+      <c r="A116" s="4">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5">
+        <v>0</v>
+      </c>
+      <c r="C116" s="5">
+        <v>0</v>
+      </c>
+      <c r="D116" s="8">
+        <v>0</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5">
+        <v>10</v>
+      </c>
+      <c r="G116" s="9">
+        <v>7</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="12">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>12</v>
+      </c>
+      <c r="L116">
+        <v>12</v>
+      </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="L117" s="11"/>
+      <c r="A117" s="4">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0</v>
+      </c>
+      <c r="D117" s="8">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5">
+        <v>0</v>
+      </c>
+      <c r="F117" s="5">
+        <v>10</v>
+      </c>
+      <c r="G117" s="9">
+        <v>4</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="12">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>12</v>
+      </c>
+      <c r="L117">
+        <v>12</v>
+      </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="L118" s="11"/>
+      <c r="A118" s="4">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0</v>
+      </c>
+      <c r="D118" s="8">
+        <v>0</v>
+      </c>
+      <c r="E118" s="5">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5">
+        <v>50</v>
+      </c>
+      <c r="G118" s="9">
+        <v>14</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="J118" s="12">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>12</v>
+      </c>
+      <c r="L118">
+        <v>12</v>
+      </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="L119" s="11"/>
+      <c r="A119" s="4">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5">
+        <v>50</v>
+      </c>
+      <c r="G119" s="9">
+        <v>8</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+      <c r="J119" s="12">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>12</v>
+      </c>
+      <c r="L119">
+        <v>12</v>
+      </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="L120" s="11"/>
+      <c r="A120" s="4">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0</v>
+      </c>
+      <c r="D120" s="8">
+        <v>0</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1</v>
+      </c>
+      <c r="F120" s="5">
+        <v>50</v>
+      </c>
+      <c r="G120" s="9">
+        <v>12</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="12">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>12</v>
+      </c>
+      <c r="L120">
+        <v>12</v>
+      </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="L121" s="11"/>
+      <c r="A121" s="4">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+      <c r="D121" s="8">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F121" s="5">
+        <v>50</v>
+      </c>
+      <c r="G121" s="9">
+        <v>5</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+      <c r="J121" s="12">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>12</v>
+      </c>
+      <c r="L121">
+        <v>12</v>
+      </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="4"/>
@@ -2636,20 +5186,20 @@
       <c r="F125" s="4"/>
       <c r="G125" s="8"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="4"/>
+      <c r="I125" s="7"/>
       <c r="J125" s="4"/>
       <c r="L125" s="11"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="8"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="7"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="5"/>
       <c r="J126" s="4"/>
       <c r="L126" s="11"/>
     </row>
@@ -2694,14 +5244,14 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
       <c r="D130" s="8"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="5"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="L130" s="11"/>
     </row>
@@ -2751,7 +5301,7 @@
       <c r="D134" s="8"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
-      <c r="G134" s="10"/>
+      <c r="G134" s="8"/>
       <c r="H134" s="3"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
@@ -2835,19 +5385,6 @@
       <c r="J140" s="4"/>
       <c r="L140" s="11"/>
     </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="4"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="8"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="L141" s="11"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2859,7 +5396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Input data/Test_Task_list.xlsx
+++ b/Input data/Test_Task_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCC721-CFD4-5A43-8D5A-297D6244D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A64058-D2D0-5641-83D2-52D47167CE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
+    <workbookView xWindow="6160" yWindow="500" windowWidth="20080" windowHeight="15800" activeTab="1" xr2:uid="{72EC4D3E-5F86-F046-9AAF-2F56F54DDF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="14">
   <si>
     <t>Task ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0C464B-E021-9D41-8D89-770FE56B4B97}">
   <dimension ref="A1:M140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="J110" sqref="J110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5396,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D3A6AB7-4833-A94B-94C3-4DB3EA4569E2}">
   <dimension ref="A1:L142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6163,1432 +6163,3880 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="12"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>225</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>80</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="12"/>
-      <c r="K22"/>
-      <c r="L22"/>
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>225</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>235</v>
+      </c>
+      <c r="G22" s="8">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="12"/>
-      <c r="K23"/>
-      <c r="L23"/>
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>225</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>235</v>
+      </c>
+      <c r="G23" s="8">
+        <v>5</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="4">
+        <v>29</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>9</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="12"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>225</v>
+      </c>
+      <c r="D24" s="8">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>400</v>
+      </c>
+      <c r="G24" s="8">
+        <v>11</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="12"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>225</v>
+      </c>
+      <c r="D25" s="8">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>400</v>
+      </c>
+      <c r="G25" s="8">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="12"/>
-      <c r="K26"/>
-      <c r="L26"/>
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <v>225</v>
+      </c>
+      <c r="D26" s="8">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>400</v>
+      </c>
+      <c r="G26" s="8">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="12"/>
-      <c r="K27"/>
-      <c r="L27"/>
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>225</v>
+      </c>
+      <c r="D27" s="8">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>400</v>
+      </c>
+      <c r="G27" s="8">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="12"/>
-      <c r="K28"/>
-      <c r="L28"/>
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>225</v>
+      </c>
+      <c r="D28" s="8">
+        <v>12</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>400</v>
+      </c>
+      <c r="G28" s="8">
+        <v>8</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>9</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="12"/>
-      <c r="K29"/>
-      <c r="L29"/>
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>225</v>
+      </c>
+      <c r="D29" s="8">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>400</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="4">
+        <v>32</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="12"/>
-      <c r="K30"/>
-      <c r="L30"/>
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>225</v>
+      </c>
+      <c r="D30" s="8">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>400</v>
+      </c>
+      <c r="G30" s="8">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>9</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="12"/>
-      <c r="K31"/>
-      <c r="L31"/>
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>225</v>
+      </c>
+      <c r="D31" s="8">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>400</v>
+      </c>
+      <c r="G31" s="8">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="12"/>
-      <c r="K32"/>
-      <c r="L32"/>
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>10</v>
+      </c>
+      <c r="G32" s="9">
+        <v>7</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="12">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>12</v>
+      </c>
+      <c r="L32">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="12"/>
-      <c r="K33"/>
-      <c r="L33"/>
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>10</v>
+      </c>
+      <c r="G33" s="9">
+        <v>4</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>12</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="12"/>
-      <c r="K34"/>
-      <c r="L34"/>
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>50</v>
+      </c>
+      <c r="G34" s="9">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>12</v>
+      </c>
+      <c r="L34">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="12"/>
-      <c r="K35"/>
-      <c r="L35"/>
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>50</v>
+      </c>
+      <c r="G35" s="9">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>12</v>
+      </c>
+      <c r="L35">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="12"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>50</v>
+      </c>
+      <c r="G36" s="9">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
+      </c>
+      <c r="J36" s="12">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="12"/>
-      <c r="K37"/>
-      <c r="L37"/>
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>50</v>
+      </c>
+      <c r="G37" s="9">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="12">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="12"/>
-      <c r="K38"/>
-      <c r="L38"/>
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>225</v>
+      </c>
+      <c r="D38" s="8">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>80</v>
+      </c>
+      <c r="G38" s="8">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="12"/>
-      <c r="K39"/>
-      <c r="L39"/>
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>225</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>235</v>
+      </c>
+      <c r="G39" s="8">
+        <v>9</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="4"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="12"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>225</v>
+      </c>
+      <c r="D40" s="8">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>235</v>
+      </c>
+      <c r="G40" s="8">
+        <v>5</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="4">
+        <v>46</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>9</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="12"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>225</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>400</v>
+      </c>
+      <c r="G41" s="8">
+        <v>11</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="12"/>
-      <c r="K42"/>
-      <c r="L42"/>
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>225</v>
+      </c>
+      <c r="D42" s="8">
+        <v>3</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>400</v>
+      </c>
+      <c r="G42" s="8">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="12"/>
-      <c r="K43"/>
-      <c r="L43"/>
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>225</v>
+      </c>
+      <c r="D43" s="8">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>400</v>
+      </c>
+      <c r="G43" s="8">
+        <v>4</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K43">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="12"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>225</v>
+      </c>
+      <c r="D44" s="8">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4">
+        <v>400</v>
+      </c>
+      <c r="G44" s="8">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="12"/>
-      <c r="K45"/>
-      <c r="L45"/>
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="4">
+        <v>225</v>
+      </c>
+      <c r="D45" s="8">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <v>400</v>
+      </c>
+      <c r="G45" s="8">
+        <v>8</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="12"/>
-      <c r="K46"/>
-      <c r="L46"/>
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>225</v>
+      </c>
+      <c r="D46" s="8">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <v>400</v>
+      </c>
+      <c r="G46" s="8">
+        <v>2</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="4">
+        <v>49</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K46">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="12"/>
-      <c r="K47"/>
-      <c r="L47"/>
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4">
+        <v>225</v>
+      </c>
+      <c r="D47" s="8">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4">
+        <v>400</v>
+      </c>
+      <c r="G47" s="8">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K47">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>9</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="12"/>
-      <c r="K48"/>
-      <c r="L48"/>
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>225</v>
+      </c>
+      <c r="D48" s="8">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4">
+        <v>400</v>
+      </c>
+      <c r="G48" s="8">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K48">
+        <v>9</v>
+      </c>
+      <c r="L48">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="12"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>10</v>
+      </c>
+      <c r="G49" s="9">
+        <v>7</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>12</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="12"/>
-      <c r="K50"/>
-      <c r="L50"/>
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <v>10</v>
+      </c>
+      <c r="G50" s="9">
+        <v>4</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0</v>
+      </c>
+      <c r="J50" s="12">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="12"/>
-      <c r="K51"/>
-      <c r="L51"/>
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>50</v>
+      </c>
+      <c r="G51" s="9">
+        <v>14</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>12</v>
+      </c>
+      <c r="L51">
+        <v>12</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="12"/>
-      <c r="K52"/>
-      <c r="L52"/>
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>50</v>
+      </c>
+      <c r="G52" s="9">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>12</v>
+      </c>
+      <c r="L52">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="12"/>
-      <c r="K53"/>
-      <c r="L53"/>
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="5">
+        <v>50</v>
+      </c>
+      <c r="G53" s="9">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>12</v>
+      </c>
+      <c r="L53">
+        <v>12</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="12"/>
-      <c r="K54"/>
-      <c r="L54"/>
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1</v>
+      </c>
+      <c r="F54" s="5">
+        <v>50</v>
+      </c>
+      <c r="G54" s="9">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>12</v>
+      </c>
+      <c r="L54">
+        <v>12</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="12"/>
-      <c r="K55"/>
-      <c r="L55"/>
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>225</v>
+      </c>
+      <c r="D55" s="8">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>80</v>
+      </c>
+      <c r="G55" s="8">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="12"/>
-      <c r="K56"/>
-      <c r="L56"/>
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>225</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>235</v>
+      </c>
+      <c r="G56" s="8">
+        <v>9</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K56">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>9</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="12"/>
-      <c r="K57"/>
-      <c r="L57"/>
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>225</v>
+      </c>
+      <c r="D57" s="8">
+        <v>7</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>235</v>
+      </c>
+      <c r="G57" s="8">
+        <v>5</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="4">
+        <v>63</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K57">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>9</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="12"/>
-      <c r="K58"/>
-      <c r="L58"/>
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>225</v>
+      </c>
+      <c r="D58" s="8">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="4">
+        <v>400</v>
+      </c>
+      <c r="G58" s="8">
+        <v>11</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="4">
+        <v>0</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>9</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="12"/>
-      <c r="K59"/>
-      <c r="L59"/>
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4">
+        <v>225</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="4">
+        <v>400</v>
+      </c>
+      <c r="G59" s="8">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="4">
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>9</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="12"/>
-      <c r="K60"/>
-      <c r="L60"/>
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>225</v>
+      </c>
+      <c r="D60" s="8">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4">
+        <v>1</v>
+      </c>
+      <c r="F60" s="4">
+        <v>400</v>
+      </c>
+      <c r="G60" s="8">
+        <v>4</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K60">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="12"/>
-      <c r="K61"/>
-      <c r="L61"/>
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4">
+        <v>225</v>
+      </c>
+      <c r="D61" s="8">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4">
+        <v>400</v>
+      </c>
+      <c r="G61" s="8">
+        <v>8</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K61">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>9</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="12"/>
-      <c r="K62"/>
-      <c r="L62"/>
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>225</v>
+      </c>
+      <c r="D62" s="8">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>400</v>
+      </c>
+      <c r="G62" s="8">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K62">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="12"/>
-      <c r="K63"/>
-      <c r="L63"/>
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>225</v>
+      </c>
+      <c r="D63" s="8">
+        <v>8</v>
+      </c>
+      <c r="E63" s="4">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4">
+        <v>400</v>
+      </c>
+      <c r="G63" s="8">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="4">
+        <v>66</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>9</v>
+      </c>
+      <c r="L63">
+        <v>9</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="12"/>
-      <c r="K64"/>
-      <c r="L64"/>
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>225</v>
+      </c>
+      <c r="D64" s="8">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2</v>
+      </c>
+      <c r="F64" s="4">
+        <v>400</v>
+      </c>
+      <c r="G64" s="8">
+        <v>10</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K64">
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <v>9</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="4"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="12"/>
-      <c r="K65"/>
-      <c r="L65"/>
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4">
+        <v>225</v>
+      </c>
+      <c r="D65" s="8">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4">
+        <v>2</v>
+      </c>
+      <c r="F65" s="4">
+        <v>400</v>
+      </c>
+      <c r="G65" s="8">
+        <v>7</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="4">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K65">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <v>9</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="4"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="12"/>
-      <c r="K66"/>
-      <c r="L66"/>
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>10</v>
+      </c>
+      <c r="G66" s="9">
+        <v>7</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="4"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="12"/>
-      <c r="K67"/>
-      <c r="L67"/>
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="5">
+        <v>10</v>
+      </c>
+      <c r="G67" s="9">
+        <v>4</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="4">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>12</v>
+      </c>
+      <c r="L67">
+        <v>12</v>
+      </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="4"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="12"/>
-      <c r="K68"/>
-      <c r="L68"/>
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>50</v>
+      </c>
+      <c r="G68" s="9">
+        <v>14</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>12</v>
+      </c>
+      <c r="L68">
+        <v>12</v>
+      </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="4"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="12"/>
-      <c r="K69"/>
-      <c r="L69"/>
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>50</v>
+      </c>
+      <c r="G69" s="9">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>12</v>
+      </c>
+      <c r="L69">
+        <v>12</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="4"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="12"/>
-      <c r="K70"/>
-      <c r="L70"/>
+      <c r="A70" s="4">
+        <v>67</v>
+      </c>
+      <c r="B70" s="5">
+        <v>0</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="8">
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>50</v>
+      </c>
+      <c r="G70" s="9">
+        <v>12</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>12</v>
+      </c>
+      <c r="L70">
+        <v>12</v>
+      </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="4"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="12"/>
-      <c r="K71"/>
-      <c r="L71"/>
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>50</v>
+      </c>
+      <c r="G71" s="9">
+        <v>5</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="12">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>12</v>
+      </c>
+      <c r="L71">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="4"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="12"/>
-      <c r="K72"/>
-      <c r="L72"/>
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>225</v>
+      </c>
+      <c r="D72" s="8">
+        <v>3</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>80</v>
+      </c>
+      <c r="G72" s="8">
+        <v>6</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <v>9</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="4"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="12"/>
-      <c r="K73"/>
-      <c r="L73"/>
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0</v>
+      </c>
+      <c r="C73" s="4">
+        <v>225</v>
+      </c>
+      <c r="D73" s="8">
+        <v>3</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>235</v>
+      </c>
+      <c r="G73" s="8">
+        <v>9</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K73">
+        <v>9</v>
+      </c>
+      <c r="L73">
+        <v>9</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="4"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="12"/>
-      <c r="K74"/>
-      <c r="L74"/>
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
+        <v>225</v>
+      </c>
+      <c r="D74" s="8">
+        <v>7</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>235</v>
+      </c>
+      <c r="G74" s="8">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="4">
+        <v>80</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K74">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <v>9</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="4"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="12"/>
-      <c r="K75"/>
-      <c r="L75"/>
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4">
+        <v>225</v>
+      </c>
+      <c r="D75" s="8">
+        <v>3</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>400</v>
+      </c>
+      <c r="G75" s="8">
+        <v>11</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K75">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>9</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="4"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="12"/>
-      <c r="K76"/>
-      <c r="L76"/>
+      <c r="A76" s="4">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>225</v>
+      </c>
+      <c r="D76" s="8">
+        <v>3</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>400</v>
+      </c>
+      <c r="G76" s="8">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>9</v>
+      </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="4"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="12"/>
-      <c r="K77"/>
-      <c r="L77"/>
+      <c r="A77" s="4">
+        <v>74</v>
+      </c>
+      <c r="B77" s="4">
+        <v>0</v>
+      </c>
+      <c r="C77" s="4">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <v>400</v>
+      </c>
+      <c r="G77" s="8">
+        <v>4</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" s="4">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K77">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="4"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="12"/>
-      <c r="K78"/>
-      <c r="L78"/>
+      <c r="A78" s="4">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>225</v>
+      </c>
+      <c r="D78" s="8">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
+      <c r="F78" s="4">
+        <v>400</v>
+      </c>
+      <c r="G78" s="8">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="4">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K78">
+        <v>9</v>
+      </c>
+      <c r="L78">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="4"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="12"/>
-      <c r="K79"/>
-      <c r="L79"/>
+      <c r="A79" s="4">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4">
+        <v>0</v>
+      </c>
+      <c r="C79" s="4">
+        <v>225</v>
+      </c>
+      <c r="D79" s="8">
+        <v>12</v>
+      </c>
+      <c r="E79" s="4">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
+        <v>400</v>
+      </c>
+      <c r="G79" s="8">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I79" s="4">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K79">
+        <v>9</v>
+      </c>
+      <c r="L79">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="4"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="12"/>
-      <c r="K80"/>
-      <c r="L80"/>
+      <c r="A80" s="4">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0</v>
+      </c>
+      <c r="C80" s="4">
+        <v>225</v>
+      </c>
+      <c r="D80" s="8">
+        <v>8</v>
+      </c>
+      <c r="E80" s="4">
+        <v>2</v>
+      </c>
+      <c r="F80" s="4">
+        <v>400</v>
+      </c>
+      <c r="G80" s="8">
+        <v>2</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="4">
+        <v>83</v>
+      </c>
+      <c r="J80" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <v>9</v>
+      </c>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="4"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="12"/>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="A81" s="4">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4">
+        <v>0</v>
+      </c>
+      <c r="C81" s="4">
+        <v>225</v>
+      </c>
+      <c r="D81" s="8">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4">
+        <v>2</v>
+      </c>
+      <c r="F81" s="4">
+        <v>400</v>
+      </c>
+      <c r="G81" s="8">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I81" s="4">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>9</v>
+      </c>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="12"/>
-      <c r="K82"/>
-      <c r="L82"/>
+      <c r="A82" s="4">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4">
+        <v>0</v>
+      </c>
+      <c r="C82" s="4">
+        <v>225</v>
+      </c>
+      <c r="D82" s="8">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4">
+        <v>2</v>
+      </c>
+      <c r="F82" s="4">
+        <v>400</v>
+      </c>
+      <c r="G82" s="8">
+        <v>7</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <v>9</v>
+      </c>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="12"/>
-      <c r="K83"/>
-      <c r="L83"/>
+      <c r="A83" s="4">
+        <v>80</v>
+      </c>
+      <c r="B83" s="5">
+        <v>0</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5">
+        <v>10</v>
+      </c>
+      <c r="G83" s="9">
+        <v>7</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>12</v>
+      </c>
+      <c r="L83">
+        <v>12</v>
+      </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="12"/>
-      <c r="K84"/>
-      <c r="L84"/>
+      <c r="A84" s="4">
+        <v>81</v>
+      </c>
+      <c r="B84" s="5">
+        <v>0</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5">
+        <v>10</v>
+      </c>
+      <c r="G84" s="9">
+        <v>4</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="4">
+        <v>0</v>
+      </c>
+      <c r="J84" s="12">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>12</v>
+      </c>
+      <c r="L84">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="12"/>
-      <c r="K85"/>
-      <c r="L85"/>
+      <c r="A85" s="4">
+        <v>82</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1</v>
+      </c>
+      <c r="F85" s="5">
+        <v>50</v>
+      </c>
+      <c r="G85" s="9">
+        <v>14</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="4">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>12</v>
+      </c>
+      <c r="L85">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="12"/>
-      <c r="K86"/>
-      <c r="L86"/>
+      <c r="A86" s="4">
+        <v>83</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1</v>
+      </c>
+      <c r="F86" s="5">
+        <v>50</v>
+      </c>
+      <c r="G86" s="9">
+        <v>8</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="4">
+        <v>0</v>
+      </c>
+      <c r="J86" s="12">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>12</v>
+      </c>
+      <c r="L86">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="12"/>
-      <c r="K87"/>
-      <c r="L87"/>
+      <c r="A87" s="4">
+        <v>84</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>50</v>
+      </c>
+      <c r="G87" s="9">
+        <v>12</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="4">
+        <v>0</v>
+      </c>
+      <c r="J87" s="12">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>12</v>
+      </c>
+      <c r="L87">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="12"/>
-      <c r="K88"/>
-      <c r="L88"/>
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="5">
+        <v>0</v>
+      </c>
+      <c r="C88" s="5">
+        <v>0</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5">
+        <v>50</v>
+      </c>
+      <c r="G88" s="9">
+        <v>5</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I88" s="4">
+        <v>0</v>
+      </c>
+      <c r="J88" s="12">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>12</v>
+      </c>
+      <c r="L88">
+        <v>12</v>
+      </c>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="12"/>
-      <c r="K89"/>
-      <c r="L89"/>
+      <c r="A89" s="4">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0</v>
+      </c>
+      <c r="C89" s="4">
+        <v>225</v>
+      </c>
+      <c r="D89" s="8">
+        <v>3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>80</v>
+      </c>
+      <c r="G89" s="8">
+        <v>6</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I89" s="4">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K89">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="12"/>
-      <c r="K90"/>
-      <c r="L90"/>
+      <c r="A90" s="4">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4">
+        <v>225</v>
+      </c>
+      <c r="D90" s="8">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>235</v>
+      </c>
+      <c r="G90" s="8">
+        <v>9</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I90" s="4">
+        <v>0</v>
+      </c>
+      <c r="J90" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K90">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>9</v>
+      </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="12"/>
-      <c r="K91"/>
-      <c r="L91"/>
+      <c r="A91" s="4">
+        <v>88</v>
+      </c>
+      <c r="B91" s="4">
+        <v>0</v>
+      </c>
+      <c r="C91" s="4">
+        <v>225</v>
+      </c>
+      <c r="D91" s="8">
+        <v>7</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>235</v>
+      </c>
+      <c r="G91" s="8">
+        <v>5</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I91" s="4">
+        <v>97</v>
+      </c>
+      <c r="J91" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K91">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <v>9</v>
+      </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="12"/>
-      <c r="K92"/>
-      <c r="L92"/>
+      <c r="A92" s="4">
+        <v>89</v>
+      </c>
+      <c r="B92" s="4">
+        <v>0</v>
+      </c>
+      <c r="C92" s="4">
+        <v>225</v>
+      </c>
+      <c r="D92" s="8">
+        <v>3</v>
+      </c>
+      <c r="E92" s="4">
+        <v>1</v>
+      </c>
+      <c r="F92" s="4">
+        <v>400</v>
+      </c>
+      <c r="G92" s="8">
+        <v>11</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0</v>
+      </c>
+      <c r="J92" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K92">
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <v>9</v>
+      </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="12"/>
-      <c r="K93"/>
-      <c r="L93"/>
+      <c r="A93" s="4">
+        <v>90</v>
+      </c>
+      <c r="B93" s="4">
+        <v>0</v>
+      </c>
+      <c r="C93" s="4">
+        <v>225</v>
+      </c>
+      <c r="D93" s="8">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="4">
+        <v>400</v>
+      </c>
+      <c r="G93" s="8">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0</v>
+      </c>
+      <c r="J93" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K93">
+        <v>9</v>
+      </c>
+      <c r="L93">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="12"/>
-      <c r="K94"/>
-      <c r="L94"/>
+      <c r="A94" s="4">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4">
+        <v>0</v>
+      </c>
+      <c r="C94" s="4">
+        <v>225</v>
+      </c>
+      <c r="D94" s="8">
+        <v>12</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="4">
+        <v>400</v>
+      </c>
+      <c r="G94" s="8">
+        <v>4</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I94" s="4">
+        <v>0</v>
+      </c>
+      <c r="J94" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K94">
+        <v>9</v>
+      </c>
+      <c r="L94">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="12"/>
-      <c r="K95"/>
-      <c r="L95"/>
+      <c r="A95" s="4">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0</v>
+      </c>
+      <c r="C95" s="4">
+        <v>225</v>
+      </c>
+      <c r="D95" s="8">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4">
+        <v>400</v>
+      </c>
+      <c r="G95" s="8">
+        <v>8</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I95" s="4">
+        <v>0</v>
+      </c>
+      <c r="J95" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K95">
+        <v>9</v>
+      </c>
+      <c r="L95">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="12"/>
-      <c r="K96"/>
-      <c r="L96"/>
+      <c r="A96" s="4">
+        <v>93</v>
+      </c>
+      <c r="B96" s="4">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4">
+        <v>225</v>
+      </c>
+      <c r="D96" s="8">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4">
+        <v>2</v>
+      </c>
+      <c r="F96" s="4">
+        <v>400</v>
+      </c>
+      <c r="G96" s="8">
+        <v>8</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I96" s="4">
+        <v>0</v>
+      </c>
+      <c r="J96" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K96">
+        <v>9</v>
+      </c>
+      <c r="L96">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="12"/>
-      <c r="K97"/>
-      <c r="L97"/>
+      <c r="A97" s="4">
+        <v>94</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0</v>
+      </c>
+      <c r="C97" s="4">
+        <v>225</v>
+      </c>
+      <c r="D97" s="8">
+        <v>8</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+      <c r="F97" s="4">
+        <v>400</v>
+      </c>
+      <c r="G97" s="8">
+        <v>2</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I97" s="4">
+        <v>100</v>
+      </c>
+      <c r="J97" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K97">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <v>9</v>
+      </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="12"/>
-      <c r="K98"/>
-      <c r="L98"/>
+      <c r="A98" s="4">
+        <v>95</v>
+      </c>
+      <c r="B98" s="4">
+        <v>0</v>
+      </c>
+      <c r="C98" s="4">
+        <v>225</v>
+      </c>
+      <c r="D98" s="8">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4">
+        <v>2</v>
+      </c>
+      <c r="F98" s="4">
+        <v>400</v>
+      </c>
+      <c r="G98" s="8">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I98" s="4">
+        <v>0</v>
+      </c>
+      <c r="J98" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K98">
+        <v>9</v>
+      </c>
+      <c r="L98">
+        <v>9</v>
+      </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="12"/>
-      <c r="K99"/>
-      <c r="L99"/>
+      <c r="A99" s="4">
+        <v>96</v>
+      </c>
+      <c r="B99" s="4">
+        <v>0</v>
+      </c>
+      <c r="C99" s="4">
+        <v>225</v>
+      </c>
+      <c r="D99" s="8">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4">
+        <v>2</v>
+      </c>
+      <c r="F99" s="4">
+        <v>400</v>
+      </c>
+      <c r="G99" s="8">
+        <v>7</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K99">
+        <v>9</v>
+      </c>
+      <c r="L99">
+        <v>9</v>
+      </c>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="12"/>
-      <c r="K100"/>
-      <c r="L100"/>
+      <c r="A100" s="4">
+        <v>97</v>
+      </c>
+      <c r="B100" s="5">
+        <v>0</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5">
+        <v>1</v>
+      </c>
+      <c r="F100" s="5">
+        <v>10</v>
+      </c>
+      <c r="G100" s="9">
+        <v>7</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="4">
+        <v>0</v>
+      </c>
+      <c r="J100" s="12">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>12</v>
+      </c>
+      <c r="L100">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="12"/>
-      <c r="K101"/>
-      <c r="L101"/>
+      <c r="A101" s="4">
+        <v>98</v>
+      </c>
+      <c r="B101" s="5">
+        <v>0</v>
+      </c>
+      <c r="C101" s="5">
+        <v>0</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="5">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5">
+        <v>10</v>
+      </c>
+      <c r="G101" s="9">
+        <v>4</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>12</v>
+      </c>
+      <c r="L101">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="12"/>
-      <c r="K102"/>
-      <c r="L102"/>
+      <c r="A102" s="4">
+        <v>99</v>
+      </c>
+      <c r="B102" s="5">
+        <v>0</v>
+      </c>
+      <c r="C102" s="5">
+        <v>0</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5">
+        <v>50</v>
+      </c>
+      <c r="G102" s="9">
+        <v>14</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0</v>
+      </c>
+      <c r="J102" s="12">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>12</v>
+      </c>
+      <c r="L102">
+        <v>12</v>
+      </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="12"/>
-      <c r="K103"/>
-      <c r="L103"/>
+      <c r="A103" s="4">
+        <v>100</v>
+      </c>
+      <c r="B103" s="5">
+        <v>0</v>
+      </c>
+      <c r="C103" s="5">
+        <v>0</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0</v>
+      </c>
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5">
+        <v>50</v>
+      </c>
+      <c r="G103" s="9">
+        <v>8</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0</v>
+      </c>
+      <c r="J103" s="12">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>12</v>
+      </c>
+      <c r="L103">
+        <v>12</v>
+      </c>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="4"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="12"/>
-      <c r="K104"/>
-      <c r="L104"/>
+      <c r="A104" s="4">
+        <v>101</v>
+      </c>
+      <c r="B104" s="5">
+        <v>0</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5">
+        <v>1</v>
+      </c>
+      <c r="F104" s="5">
+        <v>50</v>
+      </c>
+      <c r="G104" s="9">
+        <v>12</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I104" s="4">
+        <v>0</v>
+      </c>
+      <c r="J104" s="12">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>12</v>
+      </c>
+      <c r="L104">
+        <v>12</v>
+      </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="4"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="6"/>
-      <c r="J105" s="12"/>
-      <c r="K105"/>
-      <c r="L105"/>
+      <c r="A105" s="4">
+        <v>102</v>
+      </c>
+      <c r="B105" s="5">
+        <v>0</v>
+      </c>
+      <c r="C105" s="5">
+        <v>0</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5">
+        <v>1</v>
+      </c>
+      <c r="F105" s="5">
+        <v>50</v>
+      </c>
+      <c r="G105" s="9">
+        <v>5</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I105" s="4">
+        <v>0</v>
+      </c>
+      <c r="J105" s="12">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>12</v>
+      </c>
+      <c r="L105">
+        <v>12</v>
+      </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="4"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="6"/>
-      <c r="J106" s="12"/>
-      <c r="K106"/>
-      <c r="L106"/>
+      <c r="A106" s="4">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4">
+        <v>225</v>
+      </c>
+      <c r="D106" s="8">
+        <v>3</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <v>80</v>
+      </c>
+      <c r="G106" s="8">
+        <v>6</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I106" s="4">
+        <v>0</v>
+      </c>
+      <c r="J106" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K106">
+        <v>9</v>
+      </c>
+      <c r="L106">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="4"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="6"/>
-      <c r="J107" s="12"/>
-      <c r="K107"/>
-      <c r="L107"/>
+      <c r="A107" s="4">
+        <v>104</v>
+      </c>
+      <c r="B107" s="4">
+        <v>0</v>
+      </c>
+      <c r="C107" s="4">
+        <v>225</v>
+      </c>
+      <c r="D107" s="8">
+        <v>3</v>
+      </c>
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>235</v>
+      </c>
+      <c r="G107" s="8">
+        <v>9</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I107" s="4">
+        <v>0</v>
+      </c>
+      <c r="J107" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K107">
+        <v>9</v>
+      </c>
+      <c r="L107">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="4"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="8"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="12"/>
-      <c r="K108"/>
-      <c r="L108"/>
+      <c r="A108" s="4">
+        <v>105</v>
+      </c>
+      <c r="B108" s="4">
+        <v>0</v>
+      </c>
+      <c r="C108" s="4">
+        <v>225</v>
+      </c>
+      <c r="D108" s="8">
+        <v>7</v>
+      </c>
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <v>235</v>
+      </c>
+      <c r="G108" s="8">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I108" s="4">
+        <v>114</v>
+      </c>
+      <c r="J108" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>9</v>
+      </c>
+      <c r="L108">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="4"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="12"/>
-      <c r="K109"/>
-      <c r="L109"/>
+      <c r="A109" s="4">
+        <v>106</v>
+      </c>
+      <c r="B109" s="4">
+        <v>0</v>
+      </c>
+      <c r="C109" s="4">
+        <v>225</v>
+      </c>
+      <c r="D109" s="8">
+        <v>3</v>
+      </c>
+      <c r="E109" s="4">
+        <v>1</v>
+      </c>
+      <c r="F109" s="4">
+        <v>400</v>
+      </c>
+      <c r="G109" s="8">
+        <v>11</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>9</v>
+      </c>
+      <c r="L109">
+        <v>9</v>
+      </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="4"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="6"/>
-      <c r="J110" s="12"/>
-      <c r="K110"/>
-      <c r="L110"/>
+      <c r="A110" s="4">
+        <v>107</v>
+      </c>
+      <c r="B110" s="4">
+        <v>0</v>
+      </c>
+      <c r="C110" s="4">
+        <v>225</v>
+      </c>
+      <c r="D110" s="8">
+        <v>3</v>
+      </c>
+      <c r="E110" s="4">
+        <v>1</v>
+      </c>
+      <c r="F110" s="4">
+        <v>400</v>
+      </c>
+      <c r="G110" s="8">
+        <v>14</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K110">
+        <v>9</v>
+      </c>
+      <c r="L110">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" spans="1:12">
-      <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="8"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="12"/>
-      <c r="K111"/>
-      <c r="L111"/>
+      <c r="A111" s="4">
+        <v>108</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>225</v>
+      </c>
+      <c r="D111" s="8">
+        <v>12</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1</v>
+      </c>
+      <c r="F111" s="4">
+        <v>400</v>
+      </c>
+      <c r="G111" s="8">
+        <v>4</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K111">
+        <v>9</v>
+      </c>
+      <c r="L111">
+        <v>9</v>
+      </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="4"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="6"/>
-      <c r="J112" s="12"/>
-      <c r="K112"/>
-      <c r="L112"/>
+      <c r="A112" s="4">
+        <v>109</v>
+      </c>
+      <c r="B112" s="4">
+        <v>0</v>
+      </c>
+      <c r="C112" s="4">
+        <v>225</v>
+      </c>
+      <c r="D112" s="8">
+        <v>12</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1</v>
+      </c>
+      <c r="F112" s="4">
+        <v>400</v>
+      </c>
+      <c r="G112" s="8">
+        <v>8</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K112">
+        <v>9</v>
+      </c>
+      <c r="L112">
+        <v>9</v>
+      </c>
     </row>
     <row r="113" spans="1:12">
-      <c r="A113" s="4"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="12"/>
-      <c r="K113"/>
-      <c r="L113"/>
+      <c r="A113" s="4">
+        <v>110</v>
+      </c>
+      <c r="B113" s="4">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4">
+        <v>225</v>
+      </c>
+      <c r="D113" s="8">
+        <v>12</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2</v>
+      </c>
+      <c r="F113" s="4">
+        <v>400</v>
+      </c>
+      <c r="G113" s="8">
+        <v>8</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="J113" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K113">
+        <v>9</v>
+      </c>
+      <c r="L113">
+        <v>9</v>
+      </c>
     </row>
     <row r="114" spans="1:12">
-      <c r="A114" s="4"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="6"/>
-      <c r="J114" s="12"/>
-      <c r="K114"/>
-      <c r="L114"/>
+      <c r="A114" s="4">
+        <v>111</v>
+      </c>
+      <c r="B114" s="4">
+        <v>0</v>
+      </c>
+      <c r="C114" s="4">
+        <v>225</v>
+      </c>
+      <c r="D114" s="8">
+        <v>8</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2</v>
+      </c>
+      <c r="F114" s="4">
+        <v>400</v>
+      </c>
+      <c r="G114" s="8">
+        <v>2</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I114" s="4">
+        <v>117</v>
+      </c>
+      <c r="J114" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K114">
+        <v>9</v>
+      </c>
+      <c r="L114">
+        <v>9</v>
+      </c>
     </row>
     <row r="115" spans="1:12">
-      <c r="A115" s="4"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="12"/>
-      <c r="K115"/>
-      <c r="L115"/>
+      <c r="A115" s="4">
+        <v>112</v>
+      </c>
+      <c r="B115" s="4">
+        <v>0</v>
+      </c>
+      <c r="C115" s="4">
+        <v>225</v>
+      </c>
+      <c r="D115" s="8">
+        <v>12</v>
+      </c>
+      <c r="E115" s="4">
+        <v>2</v>
+      </c>
+      <c r="F115" s="4">
+        <v>400</v>
+      </c>
+      <c r="G115" s="8">
+        <v>10</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I115" s="4">
+        <v>0</v>
+      </c>
+      <c r="J115" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K115">
+        <v>9</v>
+      </c>
+      <c r="L115">
+        <v>9</v>
+      </c>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="4"/>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="6"/>
-      <c r="J116" s="12"/>
-      <c r="K116"/>
-      <c r="L116"/>
+      <c r="A116" s="4">
+        <v>113</v>
+      </c>
+      <c r="B116" s="4">
+        <v>0</v>
+      </c>
+      <c r="C116" s="4">
+        <v>225</v>
+      </c>
+      <c r="D116" s="8">
+        <v>12</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2</v>
+      </c>
+      <c r="F116" s="4">
+        <v>400</v>
+      </c>
+      <c r="G116" s="8">
+        <v>7</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="4">
+        <v>0</v>
+      </c>
+      <c r="J116" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="K116">
+        <v>9</v>
+      </c>
+      <c r="L116">
+        <v>9</v>
+      </c>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="12"/>
-      <c r="K117"/>
-      <c r="L117"/>
+      <c r="A117" s="4">
+        <v>114</v>
+      </c>
+      <c r="B117" s="5">
+        <v>0</v>
+      </c>
+      <c r="C117" s="5">
+        <v>0</v>
+      </c>
+      <c r="D117" s="8">
+        <v>0</v>
+      </c>
+      <c r="E117" s="5">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5">
+        <v>10</v>
+      </c>
+      <c r="G117" s="9">
+        <v>7</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I117" s="4">
+        <v>0</v>
+      </c>
+      <c r="J117" s="12">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>12</v>
+      </c>
+      <c r="L117">
+        <v>12</v>
+      </c>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="12"/>
-      <c r="K118"/>
-      <c r="L118"/>
+      <c r="A118" s="4">
+        <v>115</v>
+      </c>
+      <c r="B118" s="5">
+        <v>0</v>
+      </c>
+      <c r="C118" s="5">
+        <v>0</v>
+      </c>
+      <c r="D118" s="8">
+        <v>0</v>
+      </c>
+      <c r="E118" s="5">
+        <v>0</v>
+      </c>
+      <c r="F118" s="5">
+        <v>10</v>
+      </c>
+      <c r="G118" s="9">
+        <v>4</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I118" s="4">
+        <v>0</v>
+      </c>
+      <c r="J118" s="12">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>12</v>
+      </c>
+      <c r="L118">
+        <v>12</v>
+      </c>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="12"/>
-      <c r="K119"/>
-      <c r="L119"/>
+      <c r="A119" s="4">
+        <v>116</v>
+      </c>
+      <c r="B119" s="5">
+        <v>0</v>
+      </c>
+      <c r="C119" s="5">
+        <v>0</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0</v>
+      </c>
+      <c r="E119" s="5">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5">
+        <v>50</v>
+      </c>
+      <c r="G119" s="9">
+        <v>14</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="4">
+        <v>0</v>
+      </c>
+      <c r="J119" s="12">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>12</v>
+      </c>
+      <c r="L119">
+        <v>12</v>
+      </c>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="12"/>
-      <c r="K120"/>
-      <c r="L120"/>
+      <c r="A120" s="4">
+        <v>117</v>
+      </c>
+      <c r="B120" s="5">
+        <v>0</v>
+      </c>
+      <c r="C120" s="5">
+        <v>0</v>
+      </c>
+      <c r="D120" s="8">
+        <v>0</v>
+      </c>
+      <c r="E120" s="5">
+        <v>1</v>
+      </c>
+      <c r="F120" s="5">
+        <v>50</v>
+      </c>
+      <c r="G120" s="9">
+        <v>8</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0</v>
+      </c>
+      <c r="J120" s="12">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>12</v>
+      </c>
+      <c r="L120">
+        <v>12</v>
+      </c>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="12"/>
-      <c r="K121"/>
-      <c r="L121"/>
+      <c r="A121" s="4">
+        <v>118</v>
+      </c>
+      <c r="B121" s="5">
+        <v>0</v>
+      </c>
+      <c r="C121" s="5">
+        <v>0</v>
+      </c>
+      <c r="D121" s="8">
+        <v>0</v>
+      </c>
+      <c r="E121" s="5">
+        <v>1</v>
+      </c>
+      <c r="F121" s="5">
+        <v>50</v>
+      </c>
+      <c r="G121" s="9">
+        <v>12</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="4">
+        <v>0</v>
+      </c>
+      <c r="J121" s="12">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>12</v>
+      </c>
+      <c r="L121">
+        <v>12</v>
+      </c>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="12"/>
-      <c r="K122"/>
-      <c r="L122"/>
+      <c r="A122" s="4">
+        <v>119</v>
+      </c>
+      <c r="B122" s="5">
+        <v>0</v>
+      </c>
+      <c r="C122" s="5">
+        <v>0</v>
+      </c>
+      <c r="D122" s="8">
+        <v>0</v>
+      </c>
+      <c r="E122" s="5">
+        <v>1</v>
+      </c>
+      <c r="F122" s="5">
+        <v>50</v>
+      </c>
+      <c r="G122" s="9">
+        <v>5</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="4">
+        <v>0</v>
+      </c>
+      <c r="J122" s="12">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>12</v>
+      </c>
+      <c r="L122">
+        <v>12</v>
+      </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="4"/>
